--- a/group-reports/tables/shahriar-3-1-results-after-queue-test-2.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-after-queue-test-2.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>5194 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>2794.57</t>
+          <t>2794.57 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>11988</t>
+          <t>11988 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>6226.60</t>
+          <t>6226.60 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>5206</t>
+          <t>5206 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>2882.34</t>
+          <t>2882.34 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>5535 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>2794.15</t>
+          <t>2794.15 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>660 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>11696</t>
+          <t>11696 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>6000.70</t>
+          <t>6000.70 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>459 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>12214</t>
+          <t>12214 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>6528.45</t>
+          <t>6528.45 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>91 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>5250 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2801.21</t>
+          <t>2801.21 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>14840</t>
+          <t>14840 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>3211.22</t>
+          <t>3211.22 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>5116</t>
+          <t>5116 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2793.43</t>
+          <t>2793.43 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>5229</t>
+          <t>5229 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2795.60</t>
+          <t>2795.60 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>5237</t>
+          <t>5237 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2794.98</t>
+          <t>2794.98 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>78 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>5349</t>
+          <t>5349 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2795.81</t>
+          <t>2795.81 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>444 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>14621</t>
+          <t>14621 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>7166.48</t>
+          <t>7166.48 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>13215</t>
+          <t>13215 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>7183.43</t>
+          <t>7183.43 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>4503 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2791.62</t>
+          <t>2791.62 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5366 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2793.99</t>
+          <t>2793.99 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>143 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>5117 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2940.69</t>
+          <t>2940.69 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>5238 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2795.07</t>
+          <t>2795.07 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>507 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>13564 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>7329.14</t>
+          <t>7329.14 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>5630 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2826.10</t>
+          <t>2826.10 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>5234 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2795.66</t>
+          <t>2795.66 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
